--- a/northstar-main/src/main/resources/ContractDefinition.xlsx
+++ b/northstar-main/src/main/resources/ContractDefinition.xlsx
@@ -10,7 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$G$94</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$G$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$96</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="187">
   <si>
     <t>class</t>
   </si>
@@ -107,6 +108,12 @@
   </si>
   <si>
     <t>IF股指</t>
+  </si>
+  <si>
+    <t>IM[0-9]{3,4}@.+</t>
+  </si>
+  <si>
+    <t>IM股指</t>
   </si>
   <si>
     <t>IH[0-9]{3,4}@.+</t>
@@ -591,10 +598,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -606,7 +613,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -627,8 +634,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,52 +673,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -695,16 +680,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,22 +698,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,7 +765,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,13 +843,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,31 +885,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,121 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,6 +983,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -987,15 +1009,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,17 +1028,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,133 +1076,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1526,10 +1533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1582,7 +1589,6 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1720,12 +1726,11 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9"/>
+      <c r="F9">
+        <v>0.23</v>
+      </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1733,19 +1738,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>0.1</v>
+      <c r="E10">
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1753,20 +1758,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11" t="s">
         <v>35</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1774,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1783,10 +1787,10 @@
         <v>37</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1794,19 +1798,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
         <v>40</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1814,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -1822,12 +1826,11 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14"/>
-      <c r="F14">
-        <v>1</v>
+      <c r="E14">
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1835,7 +1838,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
@@ -1843,11 +1846,11 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15">
-        <v>3</v>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1855,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1864,10 +1867,10 @@
         <v>46</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1875,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
@@ -1884,10 +1887,10 @@
         <v>48</v>
       </c>
       <c r="E17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1895,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -1903,8 +1906,8 @@
       <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="F18">
-        <v>1.5</v>
+      <c r="E18">
+        <v>2.5</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -1915,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
@@ -1923,11 +1926,11 @@
       <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="E19">
-        <v>3</v>
+      <c r="F19">
+        <v>1.5</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1935,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
@@ -1944,10 +1947,10 @@
         <v>54</v>
       </c>
       <c r="E20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1955,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1963,11 +1966,11 @@
       <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="F21">
-        <v>1</v>
+      <c r="E21">
+        <v>1.5</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1995,7 +1998,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>59</v>
@@ -2023,11 +2026,11 @@
       <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="E24">
-        <v>6</v>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2035,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -2044,7 +2047,7 @@
         <v>64</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -2055,7 +2058,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
@@ -2063,8 +2066,8 @@
       <c r="D26" t="s">
         <v>66</v>
       </c>
-      <c r="F26">
-        <v>1</v>
+      <c r="E26">
+        <v>3</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -2075,7 +2078,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2083,11 +2086,11 @@
       <c r="D27" t="s">
         <v>68</v>
       </c>
-      <c r="E27">
-        <v>3</v>
+      <c r="F27">
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2095,7 +2098,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
@@ -2103,11 +2106,11 @@
       <c r="D28" t="s">
         <v>70</v>
       </c>
-      <c r="F28">
-        <v>0.1</v>
+      <c r="E28">
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2115,19 +2118,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
         <v>71</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
+      <c r="F29">
+        <v>0.1</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2135,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
@@ -2144,11 +2147,10 @@
         <v>75</v>
       </c>
       <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30"/>
+        <v>20</v>
+      </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2165,7 +2167,7 @@
         <v>77</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
         <v>15</v>
@@ -2176,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>78</v>
@@ -2184,11 +2186,11 @@
       <c r="D32" t="s">
         <v>79</v>
       </c>
-      <c r="F32">
-        <v>1</v>
+      <c r="E32">
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2196,7 +2198,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>80</v>
@@ -2204,8 +2206,11 @@
       <c r="D33" t="s">
         <v>81</v>
       </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2213,19 +2218,16 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
         <v>84</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2242,11 +2244,10 @@
         <v>86</v>
       </c>
       <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35"/>
+        <v>3</v>
+      </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2254,7 +2255,7 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
@@ -2262,11 +2263,11 @@
       <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="F36">
-        <v>0.4</v>
+      <c r="E36">
+        <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2274,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
         <v>89</v>
@@ -2282,11 +2283,11 @@
       <c r="D37" t="s">
         <v>90</v>
       </c>
-      <c r="E37">
-        <v>3</v>
+      <c r="F37">
+        <v>0.4</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2294,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
         <v>91</v>
@@ -2302,12 +2303,11 @@
       <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="E38"/>
-      <c r="F38">
-        <v>0.5</v>
+      <c r="E38">
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2315,7 +2315,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
         <v>93</v>
@@ -2323,8 +2323,8 @@
       <c r="D39" t="s">
         <v>94</v>
       </c>
-      <c r="E39">
-        <v>3</v>
+      <c r="F39">
+        <v>0.5</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>95</v>
@@ -2344,7 +2344,7 @@
         <v>96</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -2364,7 +2364,7 @@
         <v>98</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -2375,7 +2375,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>99</v>
@@ -2384,7 +2384,7 @@
         <v>100</v>
       </c>
       <c r="E42">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -2395,7 +2395,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>101</v>
@@ -2404,7 +2404,7 @@
         <v>102</v>
       </c>
       <c r="E43">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -2424,10 +2424,7 @@
         <v>104</v>
       </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -2446,6 +2443,9 @@
       <c r="D45" t="s">
         <v>106</v>
       </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
       <c r="F45">
         <v>1</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="D46" t="s">
         <v>108</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
@@ -2478,7 +2478,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>109</v>
@@ -2487,7 +2487,7 @@
         <v>110</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -2498,7 +2498,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>111</v>
@@ -2507,7 +2507,7 @@
         <v>112</v>
       </c>
       <c r="E48">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -2529,7 +2529,6 @@
       <c r="E49">
         <v>1.5</v>
       </c>
-      <c r="F49"/>
       <c r="G49" t="s">
         <v>11</v>
       </c>
@@ -2548,9 +2547,8 @@
         <v>116</v>
       </c>
       <c r="E50">
-        <v>2.5</v>
-      </c>
-      <c r="F50"/>
+        <v>1.5</v>
+      </c>
       <c r="G50" t="s">
         <v>11</v>
       </c>
@@ -2560,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>117</v>
@@ -2568,11 +2566,11 @@
       <c r="D51" t="s">
         <v>118</v>
       </c>
-      <c r="F51">
-        <v>0.5</v>
+      <c r="E51">
+        <v>2.5</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2580,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
         <v>119</v>
@@ -2588,11 +2586,11 @@
       <c r="D52" t="s">
         <v>120</v>
       </c>
-      <c r="E52">
-        <v>3</v>
+      <c r="F52">
+        <v>0.5</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2600,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>121</v>
@@ -2608,11 +2606,11 @@
       <c r="D53" t="s">
         <v>122</v>
       </c>
-      <c r="F53">
-        <v>0.4</v>
+      <c r="E53">
+        <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2620,7 +2618,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
         <v>123</v>
@@ -2628,11 +2626,11 @@
       <c r="D54" t="s">
         <v>124</v>
       </c>
-      <c r="E54">
-        <v>1</v>
+      <c r="F54">
+        <v>0.4</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2640,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>125</v>
@@ -2649,7 +2647,7 @@
         <v>126</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -2660,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>127</v>
@@ -2669,7 +2667,7 @@
         <v>128</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -2689,7 +2687,7 @@
         <v>130</v>
       </c>
       <c r="E57">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -2700,7 +2698,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>131</v>
@@ -2708,8 +2706,8 @@
       <c r="D58" t="s">
         <v>132</v>
       </c>
-      <c r="F58">
-        <v>1</v>
+      <c r="E58">
+        <v>2.5</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2720,7 +2718,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
         <v>133</v>
@@ -2728,11 +2726,11 @@
       <c r="D59" t="s">
         <v>134</v>
       </c>
-      <c r="E59">
-        <v>5</v>
+      <c r="F59">
+        <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2740,7 +2738,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>135</v>
@@ -2749,10 +2747,10 @@
         <v>136</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2760,7 +2758,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
         <v>137</v>
@@ -2772,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2780,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>139</v>
@@ -2792,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2808,11 +2806,11 @@
       <c r="D63" t="s">
         <v>142</v>
       </c>
-      <c r="F63">
-        <v>2</v>
+      <c r="E63">
+        <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2820,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>143</v>
@@ -2828,11 +2826,11 @@
       <c r="D64" t="s">
         <v>144</v>
       </c>
-      <c r="E64">
-        <v>3</v>
+      <c r="F64">
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2849,10 +2847,10 @@
         <v>146</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2869,10 +2867,10 @@
         <v>148</v>
       </c>
       <c r="E66">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2880,7 +2878,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>149</v>
@@ -2889,7 +2887,7 @@
         <v>150</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
@@ -2900,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>151</v>
@@ -2908,12 +2906,11 @@
       <c r="D68" t="s">
         <v>152</v>
       </c>
-      <c r="E68"/>
-      <c r="F68">
-        <v>0.1</v>
+      <c r="E68">
+        <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2921,7 +2918,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
         <v>153</v>
@@ -2933,7 +2930,7 @@
         <v>0.1</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2941,7 +2938,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>155</v>
@@ -2950,7 +2947,7 @@
         <v>156</v>
       </c>
       <c r="F70">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -2961,7 +2958,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
         <v>157</v>
@@ -2970,66 +2967,64 @@
         <v>158</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
         <v>159</v>
       </c>
-      <c r="B72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>160</v>
       </c>
-      <c r="D72" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72"/>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73">
-        <v>0.5</v>
-      </c>
-      <c r="F73"/>
+        <v>44</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
       <c r="G73" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>0.5</v>
@@ -3040,54 +3035,53 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>1.5</v>
-      </c>
-      <c r="F76"/>
+        <v>5</v>
+      </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
         <v>37</v>
@@ -3096,84 +3090,84 @@
         <v>1.5</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E78">
         <v>1.5</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
         <v>46</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -3181,53 +3175,53 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D83" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83">
-        <v>1.5</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E84">
         <v>1.5</v>
@@ -3238,19 +3232,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D85" t="s">
         <v>102</v>
       </c>
       <c r="E85">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -3258,19 +3252,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
         <v>104</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -3278,19 +3272,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E87">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -3298,13 +3292,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D88" t="s">
         <v>110</v>
@@ -3318,19 +3312,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D89" t="s">
         <v>112</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -3338,19 +3332,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E90">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -3358,79 +3352,82 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
         <v>118</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E92">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E93">
+        <v>0.5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94">
         <v>1</v>
       </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" t="s">
-        <v>182</v>
-      </c>
-      <c r="D94" t="s">
-        <v>183</v>
-      </c>
-      <c r="E94">
-        <v>6</v>
+      <c r="G94" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3438,15 +3435,32 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
         <v>12</v>
       </c>
-      <c r="C95" t="s">
-        <v>182</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C96" t="s">
         <v>184</v>
       </c>
-      <c r="E95">
+      <c r="D96" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96">
         <v>6</v>
       </c>
     </row>

--- a/northstar-main/src/main/resources/ContractDefinition.xlsx
+++ b/northstar-main/src/main/resources/ContractDefinition.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="203">
   <si>
     <t>class</t>
   </si>
@@ -591,6 +591,54 @@
   </si>
   <si>
     <t>模拟合约B</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>.+@SSE@.+</t>
+  </si>
+  <si>
+    <t>上海A股</t>
+  </si>
+  <si>
+    <t>CN_STK_TT</t>
+  </si>
+  <si>
+    <t>SZSE</t>
+  </si>
+  <si>
+    <t>.+@SZSE@.+</t>
+  </si>
+  <si>
+    <t>深圳A股</t>
+  </si>
+  <si>
+    <t>SEHK</t>
+  </si>
+  <si>
+    <t>.+@SEHK@.+</t>
+  </si>
+  <si>
+    <t>港股</t>
+  </si>
+  <si>
+    <t>HK_STK_TT</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>.+@SMART@.+</t>
+  </si>
+  <si>
+    <t>美股</t>
+  </si>
+  <si>
+    <t>US_STK_TT</t>
   </si>
 </sst>
 </file>
@@ -598,9 +646,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -613,10 +661,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,16 +682,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +706,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,13 +758,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -680,57 +766,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,14 +803,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -765,37 +813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +867,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,13 +915,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +945,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,72 +982,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,6 +1017,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -998,50 +1076,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1095,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1064,10 +1112,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,133 +1124,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1533,10 +1581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3464,6 +3512,86 @@
         <v>6</v>
       </c>
     </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" t="s">
+        <v>197</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>201</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/northstar-main/src/main/resources/ContractDefinition.xlsx
+++ b/northstar-main/src/main/resources/ContractDefinition.xlsx
@@ -646,9 +646,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -660,16 +660,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,39 +674,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,56 +713,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,7 +735,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,13 +819,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,49 +897,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,13 +933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,43 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,13 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,19 +981,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,15 +1004,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1031,17 +1022,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,30 +1042,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,6 +1065,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1112,10 +1112,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1124,133 +1124,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1584,7 +1584,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/northstar-main/src/main/resources/ContractDefinition.xlsx
+++ b/northstar-main/src/main/resources/ContractDefinition.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$G$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$96</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="214">
   <si>
     <t>class</t>
   </si>
@@ -515,9 +515,21 @@
     <t>不锈钢</t>
   </si>
   <si>
+    <t>GFEX</t>
+  </si>
+  <si>
+    <t>si[0-9]{3,4}@.+</t>
+  </si>
+  <si>
+    <t>工业硅</t>
+  </si>
+  <si>
     <t>OPTION</t>
   </si>
   <si>
+    <t>si[0-9]{3,4}[^@].+</t>
+  </si>
+  <si>
     <t>rb[0-9]{3,4}[^@].+</t>
   </si>
   <si>
@@ -528,6 +540,27 @@
   </si>
   <si>
     <t>IF[0-9]{3,4}[^@].+</t>
+  </si>
+  <si>
+    <t>SPOTOPTION</t>
+  </si>
+  <si>
+    <t>HO[0-9]{3,4}[^@].+</t>
+  </si>
+  <si>
+    <t>上证50期权</t>
+  </si>
+  <si>
+    <t>MO[0-9]{3,4}[^@].+</t>
+  </si>
+  <si>
+    <t>中证1000期权</t>
+  </si>
+  <si>
+    <t>IO[0-9]{3,4}[^@].+</t>
+  </si>
+  <si>
+    <t>沪深300期权</t>
   </si>
   <si>
     <t>ZC[0-9]{3,4}[^@].+</t>
@@ -660,66 +693,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -741,6 +722,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -749,17 +767,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,15 +800,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,6 +817,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,13 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +858,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,19 +894,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +906,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,31 +942,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,25 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,37 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,6 +1037,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1032,50 +1100,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1086,6 +1110,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,10 +1145,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1124,133 +1157,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1581,18 +1614,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
@@ -3043,59 +3076,59 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
         <v>161</v>
-      </c>
-      <c r="B73" t="s">
-        <v>32</v>
       </c>
       <c r="C73" t="s">
         <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
         <v>161</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
       <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
         <v>163</v>
       </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
       <c r="E74">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75">
-        <v>0.5</v>
+        <v>44</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
@@ -3103,39 +3136,39 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -3143,99 +3176,99 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E78">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="E79">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="E81">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="G81" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -3243,76 +3276,79 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="E83">
+        <v>1.5</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <v>1.5</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E85">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E86">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -3320,19 +3356,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -3340,39 +3376,39 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E88">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E89">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -3380,19 +3416,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D90" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -3400,19 +3436,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D91" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E91">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
@@ -3420,36 +3456,36 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E93">
         <v>0.5</v>
@@ -3460,136 +3496,236 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94">
+        <v>0.5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" t="s">
         <v>8</v>
       </c>
-      <c r="C94" t="s">
-        <v>183</v>
-      </c>
-      <c r="D94" t="s">
-        <v>130</v>
-      </c>
-      <c r="E94">
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95">
         <v>1</v>
       </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" t="s">
-        <v>185</v>
-      </c>
-      <c r="E95">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D96" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>0.5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
       </c>
       <c r="G97" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>193</v>
       </c>
       <c r="D98" t="s">
-        <v>194</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
+        <v>126</v>
+      </c>
+      <c r="E98">
+        <v>0.5</v>
       </c>
       <c r="G98" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" t="s">
         <v>195</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D100" t="s">
         <v>196</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" t="s">
         <v>197</v>
       </c>
-      <c r="F99">
+      <c r="E101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102" t="s">
+        <v>201</v>
+      </c>
+      <c r="F102">
         <v>3</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>187</v>
-      </c>
-      <c r="B100" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" t="s">
-        <v>201</v>
-      </c>
-      <c r="F100">
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103">
         <v>3</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G103" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" t="s">
+        <v>212</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
